--- a/社内システム開発環境構築(python).xlsx
+++ b/社内システム開発環境構築(python).xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="软件安装" sheetId="1" r:id="rId1"/>
+    <sheet name="工程设置" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <r>
       <t>１、下</t>
@@ -360,13 +361,443 @@
   </si>
   <si>
     <t>https://github.com/xiazi124020/jcltk</t>
+  </si>
+  <si>
+    <r>
+      <t>1，mysql</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>库</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">mysql </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">u root </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF666600"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
+  <si>
+    <t>进mysql之后，输入下面命令创建数据库</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>打开命令行，cd到mysql的bin目</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>录下面输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入下面命令，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>连</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>接mysql，之后会</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>让</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>密</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>码</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>create DATABASE 数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>库</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">名;
+</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>库名字任意，自己随便起名</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>2，打开vscode，左上角</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选择文件夹，打开我们的工程，jcktk，下图</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>在上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图红框内输入命令</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pip install -r requirements.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>完了之后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入命令</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>python manage.py migrate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>把mysql配置改成自己的</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>完了之后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>尝试启动服务</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>python manage.py runserver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Watching for file changes with StatReloader</t>
+  </si>
+  <si>
+    <t>Performing system checks...</t>
+  </si>
+  <si>
+    <t>System check identified no issues (0 silenced).</t>
+  </si>
+  <si>
+    <t>June 20, 2020 - 20:05:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Django version 2.2, using settings 'apps.settings'   </t>
+  </si>
+  <si>
+    <t>Starting development server at http://127.0.0.1:8000/</t>
+  </si>
+  <si>
+    <t>Quit the server with CTRL-BREAK.</t>
+  </si>
+  <si>
+    <r>
+      <t>出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现以下信息，表示正确配置好了</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>打开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>浏览</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>输</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/jcltk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>现登录页面</t>
+    </r>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +828,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF666600"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -412,7 +855,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -420,17 +863,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDDDDDD"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDDDDDD"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -438,6 +902,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1311,6 +1843,147 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>170164</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2762250"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="8705850"/>
+          <a:ext cx="4791075" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>454914</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>170164</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14763750"/>
+          <a:ext cx="18285714" cy="10285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -1319,7 +1992,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1633,8 +2306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K774"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A498" workbookViewId="0">
-      <selection activeCell="F510" sqref="F510"/>
+    <sheetView topLeftCell="A498" workbookViewId="0">
+      <selection activeCell="N518" sqref="N518"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1779,4 +2452,150 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
   <drawing r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A163"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A164" sqref="A164"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A152" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A153" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A155" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A156" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A157" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A158" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A159" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A161" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A162" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A163" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A162" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/社内システム開発環境構築(python).xlsx
+++ b/社内システム開発環境構築(python).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="软件安装" sheetId="1" r:id="rId1"/>
@@ -1133,71 +1133,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>401</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>403</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="矩形 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5648325" y="76923900"/>
-          <a:ext cx="2695575" cy="266700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -2306,9 +2241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K774"/>
   <sheetViews>
-    <sheetView topLeftCell="A498" workbookViewId="0">
-      <selection activeCell="N518" sqref="N518"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -2458,7 +2391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+    <sheetView topLeftCell="A127" workbookViewId="0">
       <selection activeCell="A164" sqref="A164"/>
     </sheetView>
   </sheetViews>

--- a/社内システム開発環境構築(python).xlsx
+++ b/社内システム開発環境構築(python).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="软件安装" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <r>
       <t>１、下</t>
@@ -791,13 +791,87 @@
       <t>现登录页面</t>
     </r>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>创</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>建超</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>级</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>户</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>python manage.py createsuperuser</t>
+  </si>
+  <si>
+    <t>Username: admin</t>
+  </si>
+  <si>
+    <t>Email address: admin@admin.com</t>
+  </si>
+  <si>
+    <t>Password:</t>
+  </si>
+  <si>
+    <t>Password (again):</t>
+  </si>
+  <si>
+    <t>Superuser created successfully.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -840,8 +914,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9.35"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -851,6 +931,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,7 +969,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -894,6 +980,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2241,7 +2333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K774"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -2389,10 +2481,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A163"/>
+  <dimension ref="A1:A171"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="G151" sqref="G151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2457,75 +2549,116 @@
         <v>36</v>
       </c>
     </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A144" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A145" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A146" t="s">
+      <c r="A146" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A147" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A148" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A149" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A150" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A151" s="2"/>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A152" s="2"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A154" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A148" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A150" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A152" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A153" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A155" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A157" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A159" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A160" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A162" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A164" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A170" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A171" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A162" r:id="rId1"/>
+    <hyperlink ref="A170" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/社内システム開発環境構築(python).xlsx
+++ b/社内システム開発環境構築(python).xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <r>
       <t>１、下</t>
@@ -865,6 +865,27 @@
   </si>
   <si>
     <t>Superuser created successfully.</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8000/admin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>用上面的超</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>级用户登录，可以创建个人用户</t>
+    </r>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2481,10 +2502,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A171"/>
+  <dimension ref="A1:A175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="G151" sqref="G151"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A176" sqref="A176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2655,13 +2676,24 @@
         <v>49</v>
       </c>
     </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A174" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="A170" r:id="rId1"/>
+    <hyperlink ref="A174" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/社内システム開発環境構築(python).xlsx
+++ b/社内システム開発環境構築(python).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="软件安装" sheetId="1" r:id="rId1"/>
@@ -1100,13 +1100,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>447</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>454914</xdr:colOff>
-      <xdr:row>505</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>55900</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1138,13 +1138,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>357</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>454914</xdr:colOff>
-      <xdr:row>416</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>170164</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1176,13 +1176,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>647</xdr:row>
+      <xdr:row>317</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>454914</xdr:colOff>
-      <xdr:row>706</xdr:row>
+      <xdr:row>376</xdr:row>
       <xdr:rowOff>170164</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1214,13 +1214,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>517</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>454914</xdr:colOff>
-      <xdr:row>576</xdr:row>
+      <xdr:row>246</xdr:row>
       <xdr:rowOff>170164</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1252,13 +1252,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>469</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>470</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1317,13 +1317,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>548</xdr:row>
+      <xdr:row>218</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>550</xdr:row>
+      <xdr:row>220</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1382,13 +1382,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>579</xdr:row>
+      <xdr:row>249</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>513600</xdr:colOff>
-      <xdr:row>610</xdr:row>
+      <xdr:row>280</xdr:row>
       <xdr:rowOff>94574</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1420,13 +1420,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>582</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>586</xdr:row>
+      <xdr:row>256</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1485,13 +1485,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>594</xdr:row>
+      <xdr:row>264</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>599</xdr:row>
+      <xdr:row>269</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1550,13 +1550,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>613</xdr:row>
+      <xdr:row>283</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>418362</xdr:colOff>
-      <xdr:row>642</xdr:row>
+      <xdr:row>312</xdr:row>
       <xdr:rowOff>85093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1588,13 +1588,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>668</xdr:row>
+      <xdr:row>338</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>670</xdr:row>
+      <xdr:row>340</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1653,13 +1653,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>709</xdr:row>
+      <xdr:row>379</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>504162</xdr:colOff>
-      <xdr:row>737</xdr:row>
+      <xdr:row>407</xdr:row>
       <xdr:rowOff>170829</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1691,13 +1691,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>735</xdr:row>
+      <xdr:row>405</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>738</xdr:row>
+      <xdr:row>408</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1756,13 +1756,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>741</xdr:row>
+      <xdr:row>411</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>418362</xdr:colOff>
-      <xdr:row>770</xdr:row>
+      <xdr:row>440</xdr:row>
       <xdr:rowOff>85093</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1794,13 +1794,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>395</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>397</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1854,13 +1854,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>419</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>513600</xdr:colOff>
-      <xdr:row>441</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>170957</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2352,9 +2352,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K774"/>
+  <dimension ref="A1:K444"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -2431,59 +2433,59 @@
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A354" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A355" s="2" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A356" s="4" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A447" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A513" t="s">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A515" t="s">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A516" t="s">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A646" s="2" t="s">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A316" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A647" t="s">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A317" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="724" spans="10:11" x14ac:dyDescent="0.15">
-      <c r="J724" s="3" t="s">
+    <row r="394" spans="10:11" x14ac:dyDescent="0.15">
+      <c r="J394" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K724" s="1"/>
-    </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A774" t="s">
+      <c r="K394" s="1"/>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A444" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2492,7 +2494,7 @@
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
     <hyperlink ref="A18" r:id="rId2"/>
-    <hyperlink ref="A356" r:id="rId3"/>
+    <hyperlink ref="A26" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
@@ -2504,8 +2506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A176" sqref="A176"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
